--- a/Prediction/PremierLeague2025_26/Predicted_PremierLeague2025_26_table_matchday_9.xlsx
+++ b/Prediction/PremierLeague2025_26/Predicted_PremierLeague2025_26_table_matchday_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,26 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>WIN</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>TOP4</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>TOP5</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RELEGATION</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>ExpPoints</t>
         </is>
       </c>
@@ -459,8 +479,12 @@
           <t>Arsenal</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>82.19001814928832</v>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>81.56676736176716</v>
       </c>
     </row>
     <row r="3">
@@ -472,8 +496,12 @@
           <t>Manchester City</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>70.63289514314043</v>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>71.68842760627921</v>
       </c>
     </row>
     <row r="4">
@@ -485,8 +513,12 @@
           <t>Liverpool</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>69.49983088778161</v>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>68.49771028076655</v>
       </c>
     </row>
     <row r="5">
@@ -498,8 +530,12 @@
           <t>Chelsea</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>60.20743471955556</v>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>60.54405966664068</v>
       </c>
     </row>
     <row r="6">
@@ -511,8 +547,12 @@
           <t>Aston Villa</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>58.97026194679109</v>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>59.8921389461057</v>
       </c>
     </row>
     <row r="7">
@@ -524,8 +564,12 @@
           <t>Crystal Palace</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>58.19917582236654</v>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>57.99553001686682</v>
       </c>
     </row>
     <row r="8">
@@ -537,8 +581,12 @@
           <t>AFC Bournemouth</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>57.86562665455911</v>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>56.84799701114331</v>
       </c>
     </row>
     <row r="9">
@@ -550,8 +598,12 @@
           <t>Newcastle United</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>56.68450907435427</v>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>55.44259210585084</v>
       </c>
     </row>
     <row r="10">
@@ -560,11 +612,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>54.29301188401108</v>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>54.45524036993888</v>
       </c>
     </row>
     <row r="11">
@@ -576,8 +632,12 @@
           <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>54.23017742179699</v>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>54.4523841883292</v>
       </c>
     </row>
     <row r="12">
@@ -586,11 +646,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Manchester United</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>54.1584698515799</v>
+          <t>Tottenham Hotspur</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>54.06132578230342</v>
       </c>
     </row>
     <row r="13">
@@ -602,8 +666,12 @@
           <t>Brentford</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>51.24931757101593</v>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>52.49121651768586</v>
       </c>
     </row>
     <row r="14">
@@ -615,8 +683,12 @@
           <t>Sunderland</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>43.5554575761055</v>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>44.12682558533493</v>
       </c>
     </row>
     <row r="15">
@@ -628,8 +700,12 @@
           <t>Everton</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>43.17347041050547</v>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>44.01075920617485</v>
       </c>
     </row>
     <row r="16">
@@ -641,8 +717,12 @@
           <t>Fulham</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>42.96969159742644</v>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>42.15728998551921</v>
       </c>
     </row>
     <row r="17">
@@ -654,8 +734,12 @@
           <t>Leeds United</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>38.15729736502506</v>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>37.43795281308542</v>
       </c>
     </row>
     <row r="18">
@@ -664,11 +748,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Burnley</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>36.4409936716079</v>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>36.45785696161575</v>
       </c>
     </row>
     <row r="19">
@@ -677,11 +765,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>35.8278454421092</v>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>35.9863376514443</v>
       </c>
     </row>
     <row r="20">
@@ -693,8 +785,12 @@
           <t>West Ham United</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>32.88482238226652</v>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>33.38041117972701</v>
       </c>
     </row>
     <row r="21">
@@ -706,8 +802,12 @@
           <t>Wolverhampton Wanderers</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>28.67573655491655</v>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>28.35410445299532</v>
       </c>
     </row>
   </sheetData>
